--- a/Data/aearep-233/candidatepackages.xlsx
+++ b/Data/aearep-233/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -40,16 +40,10 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-233</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-233/112005/Empirical</t>
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>cec_clean.do</t>
@@ -121,10 +115,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>698</v>
+        <v>746</v>
       </c>
       <c r="C2">
-        <v>0.23143236339092255</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D2"/>
     </row>
@@ -133,10 +127,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2375</v>
+        <v>2540</v>
       </c>
       <c r="C3">
-        <v>0.78746682405471802</v>
+        <v>0.83966940641403198</v>
       </c>
       <c r="D3"/>
     </row>
@@ -145,10 +139,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2871</v>
+        <v>2747</v>
       </c>
       <c r="C4">
-        <v>0.95192307233810425</v>
+        <v>0.90809917449951172</v>
       </c>
       <c r="D4"/>
     </row>
@@ -158,7 +152,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -166,7 +160,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -174,23 +168,15 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
